--- a/commands.xlsx
+++ b/commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UsefulData\SelfProjects\JavaScript\Node.js\words_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23FB4D9-C9AD-45E3-B9A3-D7A535236436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48A7F59-E219-4586-AFAE-57802E04BC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8D10E46E-12A1-42B0-8ED5-61EB6E8FB360}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>words</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Good luck</t>
+  </si>
+  <si>
+    <t>How are you?</t>
+  </si>
+  <si>
+    <t>I am fine, how about you?</t>
   </si>
 </sst>
 </file>
@@ -403,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF328E05-E8B3-49D4-8115-E40D8DA3BE61}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,6 +445,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
